--- a/OnboardingAppFramework/testdata/onboardingTestScriptData.xlsx
+++ b/OnboardingAppFramework/testdata/onboardingTestScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
     <t>AutomationEscrowAcc</t>
   </si>
@@ -67,6 +67,330 @@
   </si>
   <si>
     <t>kavya.s@escrowstack.io</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>kavya</t>
+  </si>
+  <si>
+    <t>hcl</t>
+  </si>
+  <si>
+    <t>kavyasrinivasa.a6@gmail.com</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>navya</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>kavya.rpee23@gmail.com</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>bavya</t>
+  </si>
+  <si>
+    <t>tcs</t>
+  </si>
+  <si>
+    <t>kavya@gmail.com</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>shravya</t>
+  </si>
+  <si>
+    <t>infosys</t>
+  </si>
+  <si>
+    <t>kavya.srinivasa1996@gmail.com</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>kavyas@gmail.com</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>kavya1@gmail.com</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>kavya2@gmail.com</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>kavya3@gmail.com</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>kavya4@gmail.com</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>kavya5@gmail.com</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>kavya6@gmail.com</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>kavya7@gmail.com</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>kavya8@gmail.com</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>kavya9@gmail.com</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>kavya10@gmail.com</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>kavya11@gmail.com</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>kavya12@gmail.com</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>kavya13@gmail.com</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>kavya14@gmail.com</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>kavya15@gmail.com</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>kavya16@gmail.com</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>kavya17@gmail.com</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>kavya18@gmail.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>kavya19@gmail.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>kavya20@gmail.com</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>kavya21@gmail.com</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>kavya22@gmail.com</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>kavya23@gmail.com</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>kavya24@gmail.com</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>kavya25@gmail.com</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>kavya26@gmail.com</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>kavya27@gmail.com</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>kavya28@gmail.com</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>kavya29@gmail.com</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>kavya30@gmail.com</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>kavya31@gmail.com</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>kavya32@gmail.com</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>kavya33@gmail.com</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>kavya34@gmail.com</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>kavya35@gmail.com</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>kavya36@gmail.com</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>kavya37@gmail.com</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>kavya38@gmail.com</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>kavya39@gmail.com</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>kavya40@gmail.com</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>kavya41@gmail.com</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>kavya42@gmail.com</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>kavya43@gmail.com</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>kavya44@gmail.com</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>kavya45@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -682,11 +1006,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1250,17 +1577,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1275,7 +1603,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1300,7 +1628,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1311,11 +1639,761 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="kavya.s@escrowstack.io"/>
+    <hyperlink ref="D6" r:id="rId2" display="kavyasrinivasa.a6@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId3" display="kavya.rpee23@gmail.com"/>
+    <hyperlink ref="D8" r:id="rId4" display="kavya@gmail.com"/>
+    <hyperlink ref="D9" r:id="rId5" display="kavya.srinivasa1996@gmail.com"/>
+    <hyperlink ref="D10" r:id="rId6" display="kavyas@gmail.com" tooltip="mailto:kavyas@gmail.com"/>
+    <hyperlink ref="D11" r:id="rId7" display="kavya1@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D12" r:id="rId7" display="kavya2@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D13" r:id="rId7" display="kavya3@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D14" r:id="rId7" display="kavya4@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D15" r:id="rId7" display="kavya5@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D16" r:id="rId7" display="kavya6@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D17" r:id="rId7" display="kavya7@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D18" r:id="rId7" display="kavya8@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D19" r:id="rId7" display="kavya9@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D20" r:id="rId7" display="kavya10@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D21" r:id="rId7" display="kavya11@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D22" r:id="rId7" display="kavya12@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D23" r:id="rId7" display="kavya13@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D24" r:id="rId7" display="kavya14@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D25" r:id="rId7" display="kavya15@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D26" r:id="rId7" display="kavya16@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D27" r:id="rId7" display="kavya17@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D28" r:id="rId7" display="kavya18@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D29" r:id="rId7" display="kavya19@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D30" r:id="rId7" display="kavya20@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D31" r:id="rId7" display="kavya21@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D32" r:id="rId7" display="kavya22@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D33" r:id="rId7" display="kavya23@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D34" r:id="rId7" display="kavya24@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D35" r:id="rId7" display="kavya25@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D36" r:id="rId7" display="kavya26@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D48" r:id="rId7" display="kavya38@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D37" r:id="rId7" display="kavya27@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D49" r:id="rId7" display="kavya39@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D38" r:id="rId7" display="kavya28@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D50" r:id="rId7" display="kavya40@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D39" r:id="rId7" display="kavya29@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D51" r:id="rId7" display="kavya41@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D40" r:id="rId7" display="kavya30@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D52" r:id="rId7" display="kavya42@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D41" r:id="rId7" display="kavya31@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D53" r:id="rId7" display="kavya43@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D42" r:id="rId7" display="kavya32@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D43" r:id="rId7" display="kavya33@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D44" r:id="rId7" display="kavya34@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D45" r:id="rId7" display="kavya35@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D46" r:id="rId7" display="kavya36@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D47" r:id="rId7" display="kavya37@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D54" r:id="rId7" display="kavya44@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
+    <hyperlink ref="D55" r:id="rId7" display="kavya45@gmail.com" tooltip="mailto:kavya1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/OnboardingAppFramework/testdata/onboardingTestScriptData.xlsx
+++ b/OnboardingAppFramework/testdata/onboardingTestScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
-    <t>AutomationEscrowAcc</t>
+    <t>Escrow Account</t>
   </si>
   <si>
     <t>sl no</t>
@@ -1554,8 +1554,8 @@
   <sheetPr/>
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1579,7 +1579,7 @@
   <sheetPr/>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/OnboardingAppFramework/testdata/onboardingTestScriptData.xlsx
+++ b/OnboardingAppFramework/testdata/onboardingTestScriptData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770"/>
+    <workbookView windowWidth="14550" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A2:G11"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1554,7 +1555,7 @@
   <sheetPr/>
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1579,7 +1580,7 @@
   <sheetPr/>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/OnboardingAppFramework/testdata/onboardingTestScriptData.xlsx
+++ b/OnboardingAppFramework/testdata/onboardingTestScriptData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14550" windowHeight="6075" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A2:G11"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
   <si>
     <t>Escrow Account</t>
   </si>
@@ -392,6 +392,33 @@
   </si>
   <si>
     <t>kavya45@gmail.com</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>otp</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>pavan@aubank.in</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Approver</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1607,7 @@
   <sheetPr/>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2399,4 +2426,98 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="33.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="pavan@aubank.in"/>
+    <hyperlink ref="B4" r:id="rId2" display="kavya.srinivasa1996@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId3" display="kavya.rpee23@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId4" display="kavya.s@escrowstack.io"/>
+    <hyperlink ref="B7" r:id="rId5" display="kavyasrinivasa.a6@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>